--- a/public/template/Small.xlsx
+++ b/public/template/Small.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Project\Project-Communication\storage\app\public\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Project\Project-Communication\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3DF7B7-5916-43E6-BC7A-7F77C0FCF72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5300BD6-EB9E-4E52-B3EC-31CFEFEB1D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{11EC824E-8BFD-DE43-AC54-AD2583E968C6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{11EC824E-8BFD-DE43-AC54-AD2583E968C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Projectteam" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
   <si>
     <t>Experience Design</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>Experience Designer junior</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>merah: sales</t>
@@ -921,7 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16BC353F-6BF4-584C-BE6D-73CD38C52BC2}">
   <dimension ref="B1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -1061,7 +1058,7 @@
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="10"/>
       <c r="C19" s="18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -1075,7 +1072,7 @@
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21" s="10"/>
       <c r="C21" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D21" s="23"/>
     </row>
@@ -1187,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A77DCCC6-DA60-8D46-910F-BD0BC9C6BEAE}">
   <dimension ref="B1:J47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1245,20 +1242,14 @@
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
       <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
-        <v>89</v>
-      </c>
       <c r="F5" s="4" t="s">
         <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.35">
@@ -1272,7 +1263,7 @@
         <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
@@ -1286,7 +1277,7 @@
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
